--- a/Data/Input/SS.xlsx
+++ b/Data/Input/SS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="85">
   <si>
     <t>No.</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>USMAP330/2557</t>
+  </si>
+  <si>
+    <t>USMAP86/2562</t>
   </si>
 </sst>
 </file>
@@ -937,7 +940,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -952,7 +955,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -975,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>10</v>
@@ -1019,7 +1022,7 @@
       </c>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -1029,18 +1032,18 @@
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1050,18 +1053,18 @@
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1071,18 +1074,18 @@
       <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1092,18 +1095,18 @@
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1113,18 +1116,18 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1134,18 +1137,18 @@
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1155,18 +1158,18 @@
       <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1176,18 +1179,18 @@
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1197,18 +1200,18 @@
       <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1218,18 +1221,18 @@
       <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1239,18 +1242,18 @@
       <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1260,18 +1263,18 @@
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1281,18 +1284,18 @@
       <c r="C16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1302,18 +1305,18 @@
       <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1323,18 +1326,18 @@
       <c r="C18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1344,18 +1347,18 @@
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1365,18 +1368,18 @@
       <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1386,18 +1389,18 @@
       <c r="C21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1407,18 +1410,18 @@
       <c r="C22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1428,18 +1431,18 @@
       <c r="C23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1449,18 +1452,18 @@
       <c r="C24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1470,18 +1473,18 @@
       <c r="C25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -1491,18 +1494,18 @@
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -1512,18 +1515,18 @@
       <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -1533,18 +1536,18 @@
       <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -1554,18 +1557,18 @@
       <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -1575,18 +1578,18 @@
       <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -1596,18 +1599,18 @@
       <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -1617,16 +1620,16 @@
       <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
@@ -1638,16 +1641,16 @@
       <c r="C33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
@@ -1659,9 +1662,6 @@
       <c r="C34" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="E34" s="5" t="s">
         <v>43</v>
       </c>
@@ -1671,7 +1671,9 @@
       <c r="G34" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H34"/>
+      <c r="H34" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
@@ -1683,9 +1685,6 @@
       <c r="C35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="E35" s="5" t="s">
         <v>43</v>
       </c>
@@ -1694,6 +1693,9 @@
       </c>
       <c r="G35" s="22" t="s">
         <v>44</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,9 +1708,6 @@
       <c r="C36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="E36" s="5" t="s">
         <v>48</v>
       </c>
@@ -1718,7 +1717,9 @@
       <c r="G36" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H36"/>
+      <c r="H36" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="I36"/>
       <c r="J36"/>
     </row>
@@ -1732,9 +1733,6 @@
       <c r="C37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="E37" s="5" t="s">
         <v>48</v>
       </c>
@@ -1744,7 +1742,9 @@
       <c r="G37" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H37"/>
+      <c r="H37" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
@@ -1756,9 +1756,6 @@
       <c r="C38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="E38" s="5" t="s">
         <v>48</v>
       </c>
@@ -1768,7 +1765,9 @@
       <c r="G38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H38"/>
+      <c r="H38" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
@@ -1780,9 +1779,6 @@
       <c r="C39" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="E39" s="5" t="s">
         <v>48</v>
       </c>
@@ -1792,7 +1788,9 @@
       <c r="G39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H39"/>
+      <c r="H39" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
@@ -1804,9 +1802,6 @@
       <c r="C40" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="E40" s="5" t="s">
         <v>48</v>
       </c>
@@ -1816,7 +1811,9 @@
       <c r="G40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H40"/>
+      <c r="H40" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
@@ -1828,9 +1825,6 @@
       <c r="C41" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="E41" s="5" t="s">
         <v>48</v>
       </c>
@@ -1840,7 +1834,9 @@
       <c r="G41" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H41"/>
+      <c r="H41" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="I41"/>
       <c r="J41"/>
     </row>
@@ -1854,9 +1850,6 @@
       <c r="C42" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="E42" s="5" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1859,9 @@
       <c r="G42" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H42"/>
+      <c r="H42" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -1878,9 +1873,6 @@
       <c r="C43" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="E43" s="5" t="s">
         <v>48</v>
       </c>
@@ -1890,7 +1882,9 @@
       <c r="G43" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H43"/>
+      <c r="H43" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -1902,9 +1896,6 @@
       <c r="C44" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="E44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1914,7 +1905,9 @@
       <c r="G44" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H44"/>
+      <c r="H44" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
@@ -1926,9 +1919,6 @@
       <c r="C45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>76</v>
-      </c>
       <c r="E45" s="5" t="s">
         <v>48</v>
       </c>
@@ -1938,7 +1928,9 @@
       <c r="G45" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H45"/>
+      <c r="H45" s="13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
@@ -1950,9 +1942,6 @@
       <c r="C46" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E46" s="5" t="s">
         <v>80</v>
       </c>
@@ -1961,6 +1950,9 @@
       </c>
       <c r="G46" s="23" t="s">
         <v>81</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/Input/SS.xlsx
+++ b/Data/Input/SS.xlsx
@@ -1011,16 +1011,16 @@
       <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">

--- a/Data/Input/SS.xlsx
+++ b/Data/Input/SS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="86">
   <si>
     <t>No.</t>
   </si>
@@ -271,17 +271,20 @@
     <t>Kanokporn</t>
   </si>
   <si>
-    <t>USMAP330/2557</t>
-  </si>
-  <si>
     <t>USMAP86/2562</t>
+  </si>
+  <si>
+    <t>USMAP78/2564</t>
+  </si>
+  <si>
+    <t>USMAP22/2564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,8 +320,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +339,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,8 +550,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -618,9 +624,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -630,8 +633,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -940,7 +945,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="E11" activeCellId="1" sqref="D3 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,8 +993,8 @@
       <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>83</v>
+      <c r="D2" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>10</v>
@@ -997,7 +1002,7 @@
       <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1011,15 +1016,18 @@
       <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1038,7 +1046,7 @@
       <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1067,7 @@
       <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1088,7 @@
       <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="13" t="s">
         <v>9</v>
       </c>
@@ -1101,7 +1109,7 @@
       <c r="F7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
@@ -1122,7 +1130,7 @@
       <c r="F8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1151,7 @@
       <c r="F9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1172,7 @@
       <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="13" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1193,7 @@
       <c r="F11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="13" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1214,7 @@
       <c r="F12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="13" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1235,7 @@
       <c r="F13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="13" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1256,7 @@
       <c r="F14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1269,7 +1277,7 @@
       <c r="F15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="13" t="s">
         <v>13</v>
       </c>
@@ -1290,7 +1298,7 @@
       <c r="F16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1319,7 @@
       <c r="F17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +1340,7 @@
       <c r="F18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="13" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1361,7 @@
       <c r="F19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1374,7 +1382,7 @@
       <c r="F20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1395,7 +1403,7 @@
       <c r="F21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1424,7 @@
       <c r="F22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1445,7 @@
       <c r="F23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1458,7 +1466,7 @@
       <c r="F24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="5" t="s">
         <v>24</v>
       </c>
@@ -1479,7 +1487,7 @@
       <c r="F25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1508,7 @@
       <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1521,7 +1529,7 @@
       <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1542,7 +1550,7 @@
       <c r="F28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1563,7 +1571,7 @@
       <c r="F29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1592,7 @@
       <c r="F30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1605,7 +1613,7 @@
       <c r="F31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="13" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1634,7 @@
       <c r="F32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="13" t="s">
         <v>24</v>
       </c>
@@ -1647,7 +1655,7 @@
       <c r="F33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="13" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2033,12 @@
   <mergeCells count="1">
     <mergeCell ref="G2:G33"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" location="/memo-detail/7A85E2E538254F259C990E6483220650" display="/memo-detail/7A85E2E538254F259C990E6483220650"/>
+    <hyperlink ref="D3" r:id="rId2" location="/memo-detail/E0D71381F9A24FDE8A98072FB299FC4B" display="http://dev-usmaptavern.ais.co.th/rest - /memo-detail/E0D71381F9A24FDE8A98072FB299FC4B"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
